--- a/biology/Botanique/Lierre_des_Canaries/Lierre_des_Canaries.xlsx
+++ b/biology/Botanique/Lierre_des_Canaries/Lierre_des_Canaries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedera canariensis
-Le lierre des Canaries (Hedera canariensis Willd. ou Hedera algeriensis Hibberd) est une plante de la famille des Araliaceae. C'est une espèce de lierre originaire des îles Canaries et du nord de l’Afrique, cultivée en Grande-Bretagne depuis 1838[2].
+Le lierre des Canaries (Hedera canariensis Willd. ou Hedera algeriensis Hibberd) est une plante de la famille des Araliaceae. C'est une espèce de lierre originaire des îles Canaries et du nord de l’Afrique, cultivée en Grande-Bretagne depuis 1838.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux sont rougeâtres, partiellement ornés de poils étoilés ou écailleux-étoilés rougeâtres avec environ 15 rayons. Les feuilles sont alternes et simples. Le limbe (12-20 × 5-12 cm) est ovale-losangique sur les rameaux florifères et grossièrement denté ou légèrement lobé (3 à 5 lobes) sur les rameaux stériles. L'inflorescence est une grappe pubescentes de 13-15 fleurs.
 </t>
